--- a/biology/Botanique/Doryanthaceae/Doryanthaceae.xlsx
+++ b/biology/Botanique/Doryanthaceae/Doryanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Doryanthacées regroupe des plantes monocotylédones ; elle comprend 2-3 espèces du genre Doryanthes.
 Ceux sont des plantes herbacées, pérennes, tubéreuses, à grande rosette, certaines des zones arides, originaires d'Australie.
-La famille n'existe pas en classification classique de Cronquist (1981)[1] qui inclut ces plantes dans les Liliacées.
+La famille n'existe pas en classification classique de Cronquist (1981) qui inclut ces plantes dans les Liliacées.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Doryanthes issu du grec δορυ (dory) lance et ανθος (anthos) fleur, en référence à ses longues hampes florales qui font penser à des lances[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Doryanthes issu du grec δορυ (dory) lance et ανθος (anthos) fleur, en référence à ses longues hampes florales qui font penser à des lances.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3], Angiosperm Phylogeny Website                        (19 mai 2010)[4], NCBI  (16 avr. 2010)[5] et DELTA Angio           (16 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010), NCBI  (16 avr. 2010) et DELTA Angio           (16 avr. 2010) :
 genre Doryanthes Corrêa (1802)</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[3] et NCBI  (16 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) et NCBI  (16 avr. 2010) :
 genre Doryanthes Corrêa (1802)
 Doryanthes excelsa  Corrêa (1802)
 Doryanthes palmeri  W.Hill ex Benth. (1873)</t>
